--- a/saldoSicredi.xlsx
+++ b/saldoSicredi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\OneDrive\Área de Trabalho\AEAS\Dashboard AEAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESPACO\Desktop\AEAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0429C608-8724-4CEA-93CA-417C997E8B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F9252A-2C1E-4629-A828-276C1564060F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{47274517-760A-4A6C-AF04-43B9AFCDFD39}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{47274517-760A-4A6C-AF04-43B9AFCDFD39}"/>
   </bookViews>
   <sheets>
     <sheet name="Saldo" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>1000</v>
+        <v>968818.34</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>400000</v>
+        <v>575910.97</v>
       </c>
     </row>
   </sheetData>

--- a/saldoSicredi.xlsx
+++ b/saldoSicredi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESPACO\Desktop\AEAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F9252A-2C1E-4629-A828-276C1564060F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681235A0-97CA-495F-AD7C-3D49DB16F036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{47274517-760A-4A6C-AF04-43B9AFCDFD39}"/>
   </bookViews>
@@ -449,7 +449,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>968818.34</v>
+        <v>-10736.1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>575910.97</v>
+        <v>339995.05</v>
       </c>
     </row>
   </sheetData>

--- a/saldoSicredi.xlsx
+++ b/saldoSicredi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESPACO\Desktop\AEAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681235A0-97CA-495F-AD7C-3D49DB16F036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C8DA97-7EE6-48DF-86A2-2C29C926061E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{47274517-760A-4A6C-AF04-43B9AFCDFD39}"/>
+    <workbookView xWindow="5310" yWindow="4260" windowWidth="8430" windowHeight="9885" xr2:uid="{47274517-760A-4A6C-AF04-43B9AFCDFD39}"/>
   </bookViews>
   <sheets>
     <sheet name="Saldo" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>-10736.1</v>
+        <v>20501.72</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>339995.05</v>
+        <v>328736.25</v>
       </c>
     </row>
   </sheetData>

--- a/saldoSicredi.xlsx
+++ b/saldoSicredi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESPACO\Desktop\AEAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C8DA97-7EE6-48DF-86A2-2C29C926061E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125AB9C2-9463-4525-95AC-EE552F9A5BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5310" yWindow="4260" windowWidth="8430" windowHeight="9885" xr2:uid="{47274517-760A-4A6C-AF04-43B9AFCDFD39}"/>
+    <workbookView xWindow="17850" yWindow="1485" windowWidth="8430" windowHeight="9885" xr2:uid="{47274517-760A-4A6C-AF04-43B9AFCDFD39}"/>
   </bookViews>
   <sheets>
     <sheet name="Saldo" sheetId="1" r:id="rId1"/>
@@ -471,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>20501.72</v>
+        <v>605.28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>328736.25</v>
+        <v>335650.94</v>
       </c>
     </row>
   </sheetData>

--- a/saldoSicredi.xlsx
+++ b/saldoSicredi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESPACO\Desktop\AEAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125AB9C2-9463-4525-95AC-EE552F9A5BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0F35C5-2EB2-473E-BD2C-9F0EAC57A71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17850" yWindow="1485" windowWidth="8430" windowHeight="9885" xr2:uid="{47274517-760A-4A6C-AF04-43B9AFCDFD39}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="8430" windowHeight="13875" xr2:uid="{47274517-760A-4A6C-AF04-43B9AFCDFD39}"/>
   </bookViews>
   <sheets>
     <sheet name="Saldo" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>605.28</v>
+        <v>18199.7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>335650.94</v>
+        <v>333833.76</v>
       </c>
     </row>
   </sheetData>

--- a/saldoSicredi.xlsx
+++ b/saldoSicredi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESPACO\Desktop\AEAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0F35C5-2EB2-473E-BD2C-9F0EAC57A71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5754C3-0127-43CC-871B-EBDCDDEAECAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="8430" windowHeight="13875" xr2:uid="{47274517-760A-4A6C-AF04-43B9AFCDFD39}"/>
+    <workbookView xWindow="-9192" yWindow="1020" windowWidth="8436" windowHeight="9888" xr2:uid="{47274517-760A-4A6C-AF04-43B9AFCDFD39}"/>
   </bookViews>
   <sheets>
     <sheet name="Saldo" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>18199.7</v>
+        <v>15952.44</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>333833.76</v>
+        <v>333871.55</v>
       </c>
     </row>
   </sheetData>

--- a/saldoSicredi.xlsx
+++ b/saldoSicredi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESPACO\Desktop\AEAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5754C3-0127-43CC-871B-EBDCDDEAECAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E485E86-EE9F-4A38-96C9-DEC981230CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9192" yWindow="1020" windowWidth="8436" windowHeight="9888" xr2:uid="{47274517-760A-4A6C-AF04-43B9AFCDFD39}"/>
+    <workbookView xWindow="-9420" yWindow="1404" windowWidth="8436" windowHeight="9888" xr2:uid="{47274517-760A-4A6C-AF04-43B9AFCDFD39}"/>
   </bookViews>
   <sheets>
     <sheet name="Saldo" sheetId="1" r:id="rId1"/>
@@ -471,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>15952.44</v>
+        <v>11209.26</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>333871.55</v>
+        <v>342102.69</v>
       </c>
     </row>
   </sheetData>

--- a/saldoSicredi.xlsx
+++ b/saldoSicredi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESPACO\Desktop\AEAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E485E86-EE9F-4A38-96C9-DEC981230CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCED02E3-8856-471D-93A7-C43935DE307E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9420" yWindow="1404" windowWidth="8436" windowHeight="9888" xr2:uid="{47274517-760A-4A6C-AF04-43B9AFCDFD39}"/>
+    <workbookView xWindow="17220" yWindow="2475" windowWidth="8460" windowHeight="9900" xr2:uid="{47274517-760A-4A6C-AF04-43B9AFCDFD39}"/>
   </bookViews>
   <sheets>
     <sheet name="Saldo" sheetId="1" r:id="rId1"/>
@@ -471,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>11209.26</v>
+        <v>116194.06</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>342102.69</v>
+        <v>342152.18</v>
       </c>
     </row>
   </sheetData>

--- a/saldoSicredi.xlsx
+++ b/saldoSicredi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESPACO\Desktop\AEAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCED02E3-8856-471D-93A7-C43935DE307E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632D4C68-AE5B-4BED-8EAA-7403780C9773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17220" yWindow="2475" windowWidth="8460" windowHeight="9900" xr2:uid="{47274517-760A-4A6C-AF04-43B9AFCDFD39}"/>
+    <workbookView xWindow="-20292" yWindow="912" windowWidth="8436" windowHeight="9888" xr2:uid="{47274517-760A-4A6C-AF04-43B9AFCDFD39}"/>
   </bookViews>
   <sheets>
     <sheet name="Saldo" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>116194.06</v>
+        <v>-116194.06</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">

--- a/saldoSicredi.xlsx
+++ b/saldoSicredi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESPACO\Desktop\AEAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632D4C68-AE5B-4BED-8EAA-7403780C9773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14D5F05-D263-4B0C-922B-86F8C12D3DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20292" yWindow="912" windowWidth="8436" windowHeight="9888" xr2:uid="{47274517-760A-4A6C-AF04-43B9AFCDFD39}"/>
+    <workbookView xWindow="-9516" yWindow="1404" windowWidth="8460" windowHeight="9900" xr2:uid="{47274517-760A-4A6C-AF04-43B9AFCDFD39}"/>
   </bookViews>
   <sheets>
     <sheet name="Saldo" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>-116194.06</v>
+        <v>31843.54</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>342152.18</v>
+        <v>236613.23</v>
       </c>
     </row>
   </sheetData>

--- a/saldoSicredi.xlsx
+++ b/saldoSicredi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESPACO\Desktop\AEAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14D5F05-D263-4B0C-922B-86F8C12D3DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A99E57A-ADA1-4D35-9472-5A039E51DA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9516" yWindow="1404" windowWidth="8460" windowHeight="9900" xr2:uid="{47274517-760A-4A6C-AF04-43B9AFCDFD39}"/>
+    <workbookView xWindow="-15684" yWindow="1404" windowWidth="8460" windowHeight="9900" xr2:uid="{47274517-760A-4A6C-AF04-43B9AFCDFD39}"/>
   </bookViews>
   <sheets>
     <sheet name="Saldo" sheetId="1" r:id="rId1"/>
@@ -471,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>31843.54</v>
+        <v>42649.15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>236613.23</v>
+        <v>247301.78</v>
       </c>
     </row>
   </sheetData>

--- a/saldoSicredi.xlsx
+++ b/saldoSicredi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESPACO\Desktop\AEAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A99E57A-ADA1-4D35-9472-5A039E51DA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FF4506-4340-4D08-8EEA-B204AC518F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15684" yWindow="1404" windowWidth="8460" windowHeight="9900" xr2:uid="{47274517-760A-4A6C-AF04-43B9AFCDFD39}"/>
+    <workbookView xWindow="285" yWindow="1935" windowWidth="8460" windowHeight="9900" xr2:uid="{47274517-760A-4A6C-AF04-43B9AFCDFD39}"/>
   </bookViews>
   <sheets>
     <sheet name="Saldo" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>42649.15</v>
+        <v>54776.29</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>247301.78</v>
+        <v>258519.59</v>
       </c>
     </row>
   </sheetData>

--- a/saldoSicredi.xlsx
+++ b/saldoSicredi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESPACO\Desktop\AEAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FF4506-4340-4D08-8EEA-B204AC518F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D30074-A084-49F3-992E-7C7C9B90A2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="1935" windowWidth="8460" windowHeight="9900" xr2:uid="{47274517-760A-4A6C-AF04-43B9AFCDFD39}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{47274517-760A-4A6C-AF04-43B9AFCDFD39}"/>
   </bookViews>
   <sheets>
     <sheet name="Saldo" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>54776.29</v>
+        <v>128156.57</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>258519.59</v>
+        <v>303757.53000000003</v>
       </c>
     </row>
   </sheetData>

--- a/saldoSicredi.xlsx
+++ b/saldoSicredi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESPACO\Desktop\AEAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D30074-A084-49F3-992E-7C7C9B90A2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFCE036-1269-4974-A97A-A9FC0771D963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{47274517-760A-4A6C-AF04-43B9AFCDFD39}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{47274517-760A-4A6C-AF04-43B9AFCDFD39}"/>
   </bookViews>
   <sheets>
     <sheet name="Saldo" sheetId="1" r:id="rId1"/>
@@ -471,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>128156.57</v>
+        <v>181253.47</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>303757.53000000003</v>
+        <v>342361.19</v>
       </c>
     </row>
   </sheetData>

--- a/saldoSicredi.xlsx
+++ b/saldoSicredi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESPACO\Desktop\AEAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFCE036-1269-4974-A97A-A9FC0771D963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F440F396-5B08-46E5-9274-EB1095514D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{47274517-760A-4A6C-AF04-43B9AFCDFD39}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{47274517-760A-4A6C-AF04-43B9AFCDFD39}"/>
   </bookViews>
   <sheets>
     <sheet name="Saldo" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>181253.47</v>
+        <v>-316877.52</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>342361.19</v>
+        <v>513506.3</v>
       </c>
     </row>
   </sheetData>

--- a/saldoSicredi.xlsx
+++ b/saldoSicredi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESPACO\Desktop\AEAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F440F396-5B08-46E5-9274-EB1095514D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B56814C-CD6D-452B-BE66-178762C476F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{47274517-760A-4A6C-AF04-43B9AFCDFD39}"/>
   </bookViews>
@@ -449,7 +449,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>-316877.52</v>
+        <v>45530.09</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>513506.3</v>
+        <v>165999.59</v>
       </c>
     </row>
   </sheetData>

--- a/saldoSicredi.xlsx
+++ b/saldoSicredi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESPACO\Desktop\AEAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B56814C-CD6D-452B-BE66-178762C476F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BE0A13-A107-4541-9EAA-2190A305D7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{47274517-760A-4A6C-AF04-43B9AFCDFD39}"/>
+    <workbookView xWindow="-13368" yWindow="1080" windowWidth="8400" windowHeight="9864" xr2:uid="{47274517-760A-4A6C-AF04-43B9AFCDFD39}"/>
   </bookViews>
   <sheets>
     <sheet name="Saldo" sheetId="1" r:id="rId1"/>
@@ -471,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>45530.09</v>
+        <v>49734.89</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>165999.59</v>
+        <v>166694.89000000001</v>
       </c>
     </row>
   </sheetData>

--- a/saldoSicredi.xlsx
+++ b/saldoSicredi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESPACO\Desktop\AEAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BE0A13-A107-4541-9EAA-2190A305D7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6E5EF5-1559-458F-9888-ABB1FD9F298B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13368" yWindow="1080" windowWidth="8400" windowHeight="9864" xr2:uid="{47274517-760A-4A6C-AF04-43B9AFCDFD39}"/>
+    <workbookView xWindow="-10368" yWindow="672" windowWidth="8376" windowHeight="9852" xr2:uid="{47274517-760A-4A6C-AF04-43B9AFCDFD39}"/>
   </bookViews>
   <sheets>
     <sheet name="Saldo" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>49734.89</v>
+        <v>21415.4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>166694.89000000001</v>
+        <v>201537.29</v>
       </c>
     </row>
   </sheetData>

--- a/saldoSicredi.xlsx
+++ b/saldoSicredi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESPACO\Desktop\AEAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6E5EF5-1559-458F-9888-ABB1FD9F298B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7993CC5C-D158-4556-A8A4-59B89D5CDB80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10368" yWindow="672" windowWidth="8376" windowHeight="9852" xr2:uid="{47274517-760A-4A6C-AF04-43B9AFCDFD39}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{47274517-760A-4A6C-AF04-43B9AFCDFD39}"/>
   </bookViews>
   <sheets>
     <sheet name="Saldo" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>21415.4</v>
+        <v>25011.23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>201537.29</v>
+        <v>206005.94</v>
       </c>
     </row>
   </sheetData>
